--- a/molgenis-app-omx/src/test/resources/emx_all_datatypes.xlsx
+++ b/molgenis-app-omx/src/test/resources/emx_all_datatypes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29940" windowHeight="18320"/>
   </bookViews>
   <sheets>
     <sheet name="TypeTest" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="141">
   <si>
     <t>text</t>
   </si>
@@ -433,6 +433,18 @@
   </si>
   <si>
     <t>xxref_unique</t>
+  </si>
+  <si>
+    <t>xpoint</t>
+  </si>
+  <si>
+    <t>geometry</t>
+  </si>
+  <si>
+    <t>POINT(6.6120727999999644 53.1750128)</t>
+  </si>
+  <si>
+    <t>POINT(6.6120727999999644 53.1950128)</t>
   </si>
 </sst>
 </file>
@@ -481,9 +493,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -496,13 +510,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="10">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -803,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN39"/>
+  <dimension ref="A1:AO39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AN7" sqref="AN7"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AO39" sqref="AO39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -832,9 +848,10 @@
     <col min="36" max="36" width="14.5" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="21.5" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="15.33203125" customWidth="1"/>
+    <col min="41" max="41" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -955,8 +972,11 @@
       <c r="AN1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="2" spans="1:40">
+      <c r="AO1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1077,8 +1097,11 @@
       <c r="AN2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:40">
+      <c r="AO2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1199,8 +1222,11 @@
       <c r="AN3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:40">
+      <c r="AO3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1270,8 +1296,11 @@
       <c r="AN4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:40">
+      <c r="AO4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1392,8 +1421,11 @@
       <c r="AN5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:40">
+      <c r="AO5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1514,8 +1546,11 @@
       <c r="AN6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="7" spans="1:40">
+      <c r="AO6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1582,8 +1617,11 @@
       <c r="AM7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:40">
+      <c r="AO7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1701,8 +1739,11 @@
       <c r="AM8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:40">
+      <c r="AO8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1820,8 +1861,11 @@
       <c r="AM9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:40">
+      <c r="AO9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1888,8 +1932,11 @@
       <c r="AM10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:40">
+      <c r="AO10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2007,8 +2054,11 @@
       <c r="AM11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:40">
+      <c r="AO11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2126,8 +2176,11 @@
       <c r="AM12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:40">
+      <c r="AO12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2194,8 +2247,11 @@
       <c r="AM13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:40">
+      <c r="AO13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2313,8 +2369,11 @@
       <c r="AM14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:40">
+      <c r="AO14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2432,8 +2491,11 @@
       <c r="AM15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:40">
+      <c r="AO15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2500,8 +2562,11 @@
       <c r="AM16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:39">
+      <c r="AO16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2568,8 +2633,11 @@
       <c r="AM17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:39">
+      <c r="AO17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2687,8 +2755,11 @@
       <c r="AM18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:39">
+      <c r="AO18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2806,8 +2877,11 @@
       <c r="AM19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:39">
+      <c r="AO19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2874,8 +2948,11 @@
       <c r="AM20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:39">
+      <c r="AO20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2993,8 +3070,11 @@
       <c r="AM21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:39">
+      <c r="AO21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3109,8 +3189,11 @@
       <c r="AM22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:39">
+      <c r="AO22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3174,8 +3257,11 @@
       <c r="AM23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:39">
+      <c r="AO23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3290,8 +3376,11 @@
       <c r="AM24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:39">
+      <c r="AO24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3406,8 +3495,11 @@
       <c r="AM25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:39">
+      <c r="AO25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3471,8 +3563,11 @@
       <c r="AM26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:39">
+      <c r="AO26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3587,8 +3682,11 @@
       <c r="AM27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:39">
+      <c r="AO27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3703,8 +3801,11 @@
       <c r="AM28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:39">
+      <c r="AO28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3768,8 +3869,11 @@
       <c r="AM29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:39">
+      <c r="AO29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3884,8 +3988,11 @@
       <c r="AM30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:39">
+      <c r="AO30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4000,8 +4107,11 @@
       <c r="AM31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:39">
+      <c r="AO31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4065,8 +4175,11 @@
       <c r="AM32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:39">
+      <c r="AO32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4181,8 +4294,11 @@
       <c r="AM33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:39">
+      <c r="AO33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:41">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4297,8 +4413,11 @@
       <c r="AM34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:39">
+      <c r="AO34" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:41">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4362,8 +4481,11 @@
       <c r="AM35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:39">
+      <c r="AO35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:41">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4427,8 +4549,11 @@
       <c r="AM36">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:39">
+      <c r="AO36" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4543,8 +4668,11 @@
       <c r="AM37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:39">
+      <c r="AO37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4659,8 +4787,11 @@
       <c r="AM38">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:39">
+      <c r="AO38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:41">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4723,6 +4854,9 @@
       </c>
       <c r="AM39">
         <v>38</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4977,10 +5111,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD43"/>
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5878,6 +6012,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="44" spans="1:15">
+      <c r="A44" t="s">
+        <v>137</v>
+      </c>
+      <c r="B44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" t="s">
+        <v>138</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/molgenis-app-omx/src/test/resources/emx_all_datatypes.xlsx
+++ b/molgenis-app-omx/src/test/resources/emx_all_datatypes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29940" windowHeight="18320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29940" windowHeight="18320" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TypeTest" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="142">
   <si>
     <t>text</t>
   </si>
@@ -435,9 +435,6 @@
     <t>xxref_unique</t>
   </si>
   <si>
-    <t>xpoint</t>
-  </si>
-  <si>
     <t>geometry</t>
   </si>
   <si>
@@ -445,6 +442,12 @@
   </si>
   <si>
     <t>POINT(6.6120727999999644 53.1950128)</t>
+  </si>
+  <si>
+    <t>POLYGON ((-80.190262 25.774252, -66.118292 18.466465, -64.75737 32.321384, -80.190262 25.774252))</t>
+  </si>
+  <si>
+    <t>xgeometry</t>
   </si>
 </sst>
 </file>
@@ -493,9 +496,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -510,7 +514,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -519,6 +523,7 @@
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -821,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AO39" sqref="AO39"/>
+    <sheetView topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AO1" sqref="AO1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -848,7 +853,7 @@
     <col min="36" max="36" width="14.5" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="21.5" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="15.33203125" customWidth="1"/>
-    <col min="41" max="41" width="25.83203125" customWidth="1"/>
+    <col min="41" max="41" width="47.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41">
@@ -973,7 +978,7 @@
         <v>136</v>
       </c>
       <c r="AO1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:41">
@@ -1098,7 +1103,7 @@
         <v>2</v>
       </c>
       <c r="AO2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:41">
@@ -1223,7 +1228,7 @@
         <v>3</v>
       </c>
       <c r="AO3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -1297,7 +1302,7 @@
         <v>4</v>
       </c>
       <c r="AO4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -1422,7 +1427,7 @@
         <v>53</v>
       </c>
       <c r="AO5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:41">
@@ -1547,7 +1552,7 @@
         <v>54</v>
       </c>
       <c r="AO6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -1618,7 +1623,7 @@
         <v>6</v>
       </c>
       <c r="AO7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -1740,7 +1745,7 @@
         <v>7</v>
       </c>
       <c r="AO8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:41">
@@ -1862,7 +1867,7 @@
         <v>8</v>
       </c>
       <c r="AO9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:41">
@@ -1933,7 +1938,7 @@
         <v>9</v>
       </c>
       <c r="AO10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -2055,7 +2060,7 @@
         <v>10</v>
       </c>
       <c r="AO11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:41">
@@ -2177,7 +2182,7 @@
         <v>11</v>
       </c>
       <c r="AO12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:41">
@@ -2248,7 +2253,7 @@
         <v>12</v>
       </c>
       <c r="AO13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:41">
@@ -2370,7 +2375,7 @@
         <v>13</v>
       </c>
       <c r="AO14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:41">
@@ -2492,7 +2497,7 @@
         <v>14</v>
       </c>
       <c r="AO15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:41">
@@ -2563,7 +2568,7 @@
         <v>15</v>
       </c>
       <c r="AO16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:41">
@@ -2634,7 +2639,7 @@
         <v>16</v>
       </c>
       <c r="AO17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:41">
@@ -2756,7 +2761,7 @@
         <v>17</v>
       </c>
       <c r="AO18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:41">
@@ -2878,7 +2883,7 @@
         <v>18</v>
       </c>
       <c r="AO19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:41">
@@ -2949,7 +2954,7 @@
         <v>19</v>
       </c>
       <c r="AO20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:41">
@@ -3071,7 +3076,7 @@
         <v>20</v>
       </c>
       <c r="AO21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:41">
@@ -3190,7 +3195,7 @@
         <v>21</v>
       </c>
       <c r="AO22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:41">
@@ -3258,7 +3263,7 @@
         <v>22</v>
       </c>
       <c r="AO23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:41">
@@ -3377,7 +3382,7 @@
         <v>23</v>
       </c>
       <c r="AO24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:41">
@@ -3496,7 +3501,7 @@
         <v>24</v>
       </c>
       <c r="AO25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:41">
@@ -3564,7 +3569,7 @@
         <v>25</v>
       </c>
       <c r="AO26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:41">
@@ -3683,7 +3688,7 @@
         <v>26</v>
       </c>
       <c r="AO27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:41">
@@ -3802,7 +3807,7 @@
         <v>27</v>
       </c>
       <c r="AO28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:41">
@@ -3870,7 +3875,7 @@
         <v>28</v>
       </c>
       <c r="AO29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:41">
@@ -3989,7 +3994,7 @@
         <v>29</v>
       </c>
       <c r="AO30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:41">
@@ -4108,7 +4113,7 @@
         <v>30</v>
       </c>
       <c r="AO31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:41">
@@ -4176,7 +4181,7 @@
         <v>31</v>
       </c>
       <c r="AO32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:41">
@@ -4295,7 +4300,7 @@
         <v>32</v>
       </c>
       <c r="AO33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:41">
@@ -4414,7 +4419,7 @@
         <v>33</v>
       </c>
       <c r="AO34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:41">
@@ -4482,7 +4487,7 @@
         <v>34</v>
       </c>
       <c r="AO35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:41">
@@ -4550,7 +4555,7 @@
         <v>35</v>
       </c>
       <c r="AO36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:41">
@@ -4669,7 +4674,7 @@
         <v>36</v>
       </c>
       <c r="AO37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:41">
@@ -4788,7 +4793,7 @@
         <v>37</v>
       </c>
       <c r="AO38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:41">
@@ -4856,7 +4861,7 @@
         <v>38</v>
       </c>
       <c r="AO39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -5113,8 +5118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6014,13 +6019,13 @@
     </row>
     <row r="44" spans="1:15">
       <c r="A44" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B44" t="s">
         <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
